--- a/src/test/java/ArchiveAPI/Data/ArchiveAPI_Data.xlsx
+++ b/src/test/java/ArchiveAPI/Data/ArchiveAPI_Data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APIAutomation\Automation_OMSAPI\src\test\java\ArchiveAPI\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34C6487-C63B-4017-A925-089637DD8510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3518F65-F1DC-43AE-89FD-531720187096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="357" firstSheet="1" activeTab="2" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="357" firstSheet="2" activeTab="4" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="ArchiveLogin" sheetId="14" r:id="rId1"/>
-    <sheet name="ArchiveOrder" sheetId="13" r:id="rId2"/>
-    <sheet name="ArchiveExecution" sheetId="15" r:id="rId3"/>
-    <sheet name="ArchiveAudittrail" sheetId="16" r:id="rId4"/>
+    <sheet name="ArchiveLoginNegative" sheetId="17" r:id="rId2"/>
+    <sheet name="ArchiveOrder" sheetId="13" r:id="rId3"/>
+    <sheet name="ArchiveExecution" sheetId="15" r:id="rId4"/>
+    <sheet name="ArchiveAudittrail" sheetId="16" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="172">
   <si>
     <t>Content_Type</t>
   </si>
@@ -99,9 +100,6 @@
   </si>
   <si>
     <t>LSL</t>
-  </si>
-  <si>
-    <t>ArchiveLogin_TC0001</t>
   </si>
   <si>
     <t>Username</t>
@@ -828,6 +826,228 @@
         "requireTotalCount": true
     }
 }</t>
+  </si>
+  <si>
+    <t>[errors, type, title, status, traceId]</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+                "account25",
+                "=",
+                "10001"
+        ],
+        "skip": 0,
+        "take": 2000,
+        "isCountQuery": false,
+        "requireTotalCount": true
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+                "account",
+                "&lt;&gt;&lt;&gt;",
+                "10001"
+        ],
+        "skip": 0,
+        "take": 2000,
+        "isCountQuery": false,
+        "requireTotalCount": true
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+               [ "account",
+                "=",
+                "10001" ],
+          [ "account",
+                "=",
+                "10002" ]
+        ],
+        "skip": 0,
+        "take": 2000,
+        "isCountQuery": false,
+        "requireTotalCount": true
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+               [ "account",
+                "=",
+                "10001" ],
+          [ "account",
+                "=",
+                "10002" ]
+        ],
+        "skip": "abcd",
+        "take": 200,
+        "isCountQuery": false,
+        "requireTotalCount": true
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+               [ "account",
+                "=",
+                "10001" ],
+          [ "account",
+                "=",
+                "10002" ]
+        ],
+        "skip": 25,
+        "take": "abcd",
+        "isCountQuery": false,
+        "requireTotalCount": true
+    }
+}</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Executions_API_Without_Filter_Value_TC0022</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Executions_API_With_Invalid_FilterName_TC0023</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Executions_API_With_Invalid_FilterOperator_TC0024</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Executions_API_With_Invalid_Skip_Value_TC0026</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Executions_API_With_Invalid_take_Value_TC0027</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Executions_API_Without_FilterBody_Value_TC0028</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_Without_Filter_Value_TC0022</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Orders_API_With_Invalid_Skip_Value_TC0026</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Orders_API_With_Invalid_take_Value_TC0027</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Orders_API_Without_FilterBody_Value_TC0028</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Audittrails_API_Without_Filter_Value_TC0022</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Audittrails_API_With_Invalid_Skip_Value_TC0026</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Audittrails_API_With_Invalid_take_Value_TC0027</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Audittrails_API_Without_FilterBody_Value_TC0028</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Orders_API_Invalid_ContentType_Value_TC0029</t>
+  </si>
+  <si>
+    <t>[type, title, status, traceId]</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Executions_API_Invalid_ContentType_Value_TC0029</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Audittrails_API_Invalid_ContentType_Value_TC0029</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Orders_API_Invalid_Endpoint_Value_TC0030</t>
+  </si>
+  <si>
+    <t>/int/oms/archive/api/v1/Order/Filter</t>
+  </si>
+  <si>
+    <t>/int/oms/archive/api/v1/AuditTrail/Filter</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Audittrails_API_Invalid_Endpoint_Value_TC0030</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Executions_API_Invalid_Endpoint_Value_TC0030</t>
+  </si>
+  <si>
+    <t>ArchiveLogin_NegativeCase_Invalid_ClientID_TC0002</t>
+  </si>
+  <si>
+    <t>ArchiveLogin_With_Valid_Inputs_TC0001</t>
+  </si>
+  <si>
+    <t>ArchiveLogin_NegativeCase_Invalid_ClientSecret_TC0003</t>
+  </si>
+  <si>
+    <t>ArchiveLogin_NegativeCase_Invalid_Username_TC0004</t>
+  </si>
+  <si>
+    <t>ArchiveLogin_NegativeCase_Invalid_BoothID_TC0005</t>
+  </si>
+  <si>
+    <t>c2m123456</t>
+  </si>
+  <si>
+    <t>secret123abcdfgh</t>
+  </si>
+  <si>
+    <t>qatest2712345</t>
+  </si>
+  <si>
+    <t>LSL12345</t>
+  </si>
+  <si>
+    <t>Error_Message</t>
+  </si>
+  <si>
+    <t>invalid_client</t>
+  </si>
+  <si>
+    <t>Invalid username or booth_id.</t>
+  </si>
+  <si>
+    <t>[accessToken, expiresIn, tokenType, refreshToken, scope, error, errorDescription, errorText]</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_Without_Operator_Filters_Combinations_TC0023</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Orders_API_With_Invalid_FilterName_TC0024</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Orders_API_With_Invalid_FilterOperator_TC0025</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Executions_API_Without_Operator_Filters_Combinations_TC0023</t>
+  </si>
+  <si>
+    <t>/int/oms/archive/api/v1/Execution/Filter</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Audittrails_API_Without_Operator_Filters_Combinations_TC0023</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Audittrails_API_With_Invalid_FilterName_TC0024</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Audittrails_API_With_Invalid_FilterOperator_TC0025</t>
   </si>
 </sst>
 </file>
@@ -905,7 +1125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -922,10 +1142,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1240,30 +1459,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E338EA-CE9F-4D41-9ED1-5720F4BE28E7}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:H2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.28515625" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="81.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1275,21 +1495,24 @@
         <v>13</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>15</v>
@@ -1308,6 +1531,9 @@
       </c>
       <c r="H2" s="5">
         <v>200</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1316,11 +1542,198 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7CCEFE-F88D-4019-AFAD-6D4207875F7A}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.42578125" customWidth="1"/>
+    <col min="10" max="10" width="81.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="5">
+        <v>400</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="5">
+        <v>400</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="5">
+        <v>400</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H5" s="5">
+        <v>400</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7D56E2-D9E9-47B4-91F3-26434E16CD4C}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1359,10 +1772,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1372,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="8">
         <v>200</v>
@@ -1382,10 +1795,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -1395,20 +1808,20 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="8">
+        <v>200</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="8">
-        <v>200</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1418,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="8">
         <v>200</v>
@@ -1428,10 +1841,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1441,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="8">
         <v>200</v>
@@ -1451,10 +1864,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1464,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" s="8">
         <v>200</v>
@@ -1474,10 +1887,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1487,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" s="8">
         <v>200</v>
@@ -1497,10 +1910,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1510,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="8">
         <v>200</v>
@@ -1520,10 +1933,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1533,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="8">
         <v>200</v>
@@ -1543,10 +1956,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1556,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="8">
         <v>200</v>
@@ -1566,10 +1979,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1579,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="8">
         <v>200</v>
@@ -1589,10 +2002,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1602,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="8">
         <v>200</v>
@@ -1612,10 +2025,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -1625,20 +2038,20 @@
         <v>1</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" s="8">
         <v>200</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1648,20 +2061,20 @@
         <v>1</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" s="8">
         <v>200</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -1671,7 +2084,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="8">
         <v>200</v>
@@ -1681,10 +2094,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1694,7 +2107,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="8">
         <v>200</v>
@@ -1704,10 +2117,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1717,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F17" s="8">
         <v>200</v>
@@ -1727,10 +2140,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -1740,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" s="8">
         <v>200</v>
@@ -1750,10 +2163,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -1763,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" s="8">
         <v>200</v>
@@ -1773,10 +2186,10 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -1786,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F20" s="8">
         <v>200</v>
@@ -1796,10 +2209,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1809,7 +2222,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F21" s="8">
         <v>200</v>
@@ -1819,10 +2232,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1832,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F22" s="8">
         <v>200</v>
@@ -1840,6 +2253,207 @@
       <c r="G22" s="7" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="8">
+        <v>200</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="8">
+        <v>200</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="8">
+        <v>400</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="8">
+        <v>400</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27" s="8">
+        <v>400</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="8">
+        <v>400</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="8">
+        <v>400</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="8">
+        <v>415</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="8">
+        <v>404</v>
+      </c>
+      <c r="G31" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1848,64 +2462,64 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D330E7-9686-41B7-8243-079FED9B19D8}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="106.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="106.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="8">
         <v>200</v>
@@ -1915,21 +2529,21 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="F3" s="8">
         <v>200</v>
       </c>
@@ -1938,441 +2552,642 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="8">
+        <v>200</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="8">
-        <v>200</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="F5" s="8">
+        <v>200</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="8">
-        <v>200</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="F6" s="8">
+        <v>200</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="B7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="8">
-        <v>200</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="F7" s="8">
+        <v>200</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="B8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="8">
+        <v>200</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="8">
+        <v>200</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="8">
-        <v>200</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="8">
-        <v>200</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="F10" s="8">
+        <v>200</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="8">
+        <v>200</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="8">
+        <v>200</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="8">
+        <v>200</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="8">
+        <v>200</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="8">
-        <v>200</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="8">
-        <v>200</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11" s="8">
-        <v>200</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="F15" s="8">
+        <v>200</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="8">
+        <v>200</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="8">
+        <v>200</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="8">
+        <v>200</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="8">
+        <v>200</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="8">
+        <v>200</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="8">
+        <v>200</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="8">
+        <v>200</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="8">
+        <v>200</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="8">
+        <v>200</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="8">
+        <v>400</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="8">
-        <v>200</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="8">
-        <v>200</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="8">
-        <v>200</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="8">
-        <v>200</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16" s="8">
-        <v>200</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="8">
-        <v>200</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="8">
-        <v>200</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="8">
-        <v>200</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="8">
-        <v>200</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="8">
-        <v>200</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="8">
-        <v>200</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>11</v>
-      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="8">
+        <v>400</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27" s="8">
+        <v>400</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="8">
+        <v>400</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="8">
+        <v>400</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="8">
+        <v>415</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="8">
+        <v>404</v>
+      </c>
+      <c r="G31" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2380,12 +3195,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD535BD-FCEF-4C7D-A395-D646E8440B4F}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2402,43 +3217,43 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="F2" s="8">
         <v>200</v>
       </c>
@@ -2447,20 +3262,20 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="8">
         <v>200</v>
@@ -2470,441 +3285,642 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="8">
+        <v>200</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="8">
-        <v>200</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="F5" s="8">
+        <v>200</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="8">
-        <v>200</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="F6" s="8">
+        <v>200</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="B7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="8">
-        <v>200</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="F7" s="8">
+        <v>200</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="B8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="8">
+        <v>200</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="8">
+        <v>200</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="8">
-        <v>200</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="8">
-        <v>200</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="F10" s="8">
+        <v>200</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="8">
+        <v>200</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="8">
+        <v>200</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="8">
+        <v>200</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="8">
+        <v>200</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="8">
-        <v>200</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="8">
-        <v>200</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="8">
-        <v>200</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="8">
-        <v>200</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="8">
-        <v>200</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="F15" s="8">
+        <v>200</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="8">
+        <v>200</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="8">
-        <v>200</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="8">
-        <v>200</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16" s="8">
-        <v>200</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="F17" s="8">
+        <v>200</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="8">
-        <v>200</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="B18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="8">
+        <v>200</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="B19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="8">
-        <v>200</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="F19" s="8">
+        <v>200</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="9" t="s">
+      <c r="B20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="8">
-        <v>200</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="F20" s="8">
+        <v>200</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="B21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="8">
-        <v>200</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="F21" s="8">
+        <v>200</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="9" t="s">
+      <c r="B22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="8">
-        <v>200</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="F22" s="8">
+        <v>200</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="8">
+        <v>200</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="8">
-        <v>200</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>11</v>
-      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="8">
+        <v>200</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="8">
+        <v>400</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="8">
+        <v>400</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27" s="8">
+        <v>400</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="8">
+        <v>400</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="8">
+        <v>400</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="8">
+        <v>415</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="8">
+        <v>404</v>
+      </c>
+      <c r="G31" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/ArchiveAPI/Data/ArchiveAPI_Data.xlsx
+++ b/src/test/java/ArchiveAPI/Data/ArchiveAPI_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APIAutomation\Automation_OMSAPI\src\test\java\ArchiveAPI\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3518F65-F1DC-43AE-89FD-531720187096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD09BA5-2036-4855-84D3-35F1307F34DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="357" firstSheet="2" activeTab="4" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="357" firstSheet="2" activeTab="4" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="ArchiveLogin" sheetId="14" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="162">
   <si>
     <t>Content_Type</t>
   </si>
@@ -960,33 +960,6 @@
     <t>Verify_NegativeCase_Archive_Audittrails_API_Without_FilterBody_Value_TC0028</t>
   </si>
   <si>
-    <t>Verify_NegativeCase_Archive_Orders_API_Invalid_ContentType_Value_TC0029</t>
-  </si>
-  <si>
-    <t>[type, title, status, traceId]</t>
-  </si>
-  <si>
-    <t>Verify_NegativeCase_Archive_Executions_API_Invalid_ContentType_Value_TC0029</t>
-  </si>
-  <si>
-    <t>Verify_NegativeCase_Archive_Audittrails_API_Invalid_ContentType_Value_TC0029</t>
-  </si>
-  <si>
-    <t>Verify_NegativeCase_Archive_Orders_API_Invalid_Endpoint_Value_TC0030</t>
-  </si>
-  <si>
-    <t>/int/oms/archive/api/v1/Order/Filter</t>
-  </si>
-  <si>
-    <t>/int/oms/archive/api/v1/AuditTrail/Filter</t>
-  </si>
-  <si>
-    <t>Verify_NegativeCase_Archive_Audittrails_API_Invalid_Endpoint_Value_TC0030</t>
-  </si>
-  <si>
-    <t>Verify_NegativeCase_Archive_Executions_API_Invalid_Endpoint_Value_TC0030</t>
-  </si>
-  <si>
     <t>ArchiveLogin_NegativeCase_Invalid_ClientID_TC0002</t>
   </si>
   <si>
@@ -1023,9 +996,6 @@
     <t>Invalid username or booth_id.</t>
   </si>
   <si>
-    <t>[accessToken, expiresIn, tokenType, refreshToken, scope, error, errorDescription, errorText]</t>
-  </si>
-  <si>
     <t>Verify_Archive_Orders_API_Without_Operator_Filters_Combinations_TC0023</t>
   </si>
   <si>
@@ -1038,9 +1008,6 @@
     <t>Verify_Archive_Executions_API_Without_Operator_Filters_Combinations_TC0023</t>
   </si>
   <si>
-    <t>/int/oms/archive/api/v1/Execution/Filter</t>
-  </si>
-  <si>
     <t>Verify_Archive_Audittrails_API_Without_Operator_Filters_Combinations_TC0023</t>
   </si>
   <si>
@@ -1048,6 +1015,9 @@
   </si>
   <si>
     <t>Verify_NegativeCase_Archive_Audittrails_API_With_Invalid_FilterOperator_TC0025</t>
+  </si>
+  <si>
+    <t>[access_token, expires_in, token_type, refresh_token, scope, error, error_description, errorText]</t>
   </si>
 </sst>
 </file>
@@ -1461,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E338EA-CE9F-4D41-9ED1-5720F4BE28E7}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,7 +1479,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>22</v>
@@ -1533,7 +1503,7 @@
         <v>200</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1546,7 +1516,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,7 +1530,7 @@
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36.42578125" customWidth="1"/>
-    <col min="10" max="10" width="81.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="89.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1589,7 +1559,7 @@
         <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>10</v>
@@ -1597,7 +1567,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>22</v>
@@ -1606,7 +1576,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>16</v>
@@ -1621,15 +1591,15 @@
         <v>400</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>22</v>
@@ -1641,7 +1611,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>2</v>
@@ -1653,15 +1623,15 @@
         <v>400</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>22</v>
@@ -1676,7 +1646,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>19</v>
@@ -1685,15 +1655,15 @@
         <v>400</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>22</v>
@@ -1711,16 +1681,16 @@
         <v>2</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="H5" s="5">
         <v>400</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1730,10 +1700,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7D56E2-D9E9-47B4-91F3-26434E16CD4C}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,7 +1711,7 @@
     <col min="1" max="1" width="102.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="255.5703125" style="6" customWidth="1"/>
     <col min="6" max="6" width="32.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.7109375" style="6" bestFit="1" customWidth="1"/>
@@ -2279,7 +2249,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>3</v>
@@ -2302,7 +2272,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>3</v>
@@ -2325,7 +2295,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>3</v>
@@ -2412,48 +2382,6 @@
       <c r="G29" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" s="8">
-        <v>415</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="8">
-        <v>404</v>
-      </c>
-      <c r="G31" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2464,10 +2392,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D330E7-9686-41B7-8243-079FED9B19D8}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3013,7 +2941,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>3</v>
@@ -3146,48 +3074,6 @@
       <c r="G29" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" s="8">
-        <v>415</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="8">
-        <v>404</v>
-      </c>
-      <c r="G31" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3197,10 +3083,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD535BD-FCEF-4C7D-A395-D646E8440B4F}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3746,7 +3632,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>3</v>
@@ -3769,7 +3655,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>3</v>
@@ -3792,7 +3678,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>3</v>
@@ -3879,48 +3765,6 @@
       <c r="G29" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" s="8">
-        <v>415</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="8">
-        <v>404</v>
-      </c>
-      <c r="G31" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/ArchiveAPI/Data/ArchiveAPI_Data.xlsx
+++ b/src/test/java/ArchiveAPI/Data/ArchiveAPI_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APIAutomation\Automation_OMSAPI\src\test\java\ArchiveAPI\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD09BA5-2036-4855-84D3-35F1307F34DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE90F8B-C610-4DE6-9B42-0133EB45615C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="357" firstSheet="2" activeTab="4" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="357" activeTab="1" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="ArchiveLogin" sheetId="14" r:id="rId1"/>
@@ -1017,7 +1017,7 @@
     <t>Verify_NegativeCase_Archive_Audittrails_API_With_Invalid_FilterOperator_TC0025</t>
   </si>
   <si>
-    <t>[access_token, expires_in, token_type, refresh_token, scope, error, error_description, errorText]</t>
+    <t>[accessToken, expiresIn, tokenType, refreshToken, scope, error, errorDescription, errorText]</t>
   </si>
 </sst>
 </file>
@@ -1432,7 +1432,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,7 +1445,7 @@
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="81.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="85" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1515,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7CCEFE-F88D-4019-AFAD-6D4207875F7A}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3085,7 +3085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD535BD-FCEF-4C7D-A395-D646E8440B4F}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>

--- a/src/test/java/ArchiveAPI/Data/ArchiveAPI_Data.xlsx
+++ b/src/test/java/ArchiveAPI/Data/ArchiveAPI_Data.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APIAutomation\Automation_OMSAPI\src\test\java\ArchiveAPI\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE90F8B-C610-4DE6-9B42-0133EB45615C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672D4AAC-B208-4C58-BAD0-3E7B9EB0253E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="357" activeTab="1" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="357" firstSheet="2" activeTab="4" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="ArchiveLogin" sheetId="14" r:id="rId1"/>
     <sheet name="ArchiveLoginNegative" sheetId="17" r:id="rId2"/>
     <sheet name="ArchiveOrder" sheetId="13" r:id="rId3"/>
-    <sheet name="ArchiveExecution" sheetId="15" r:id="rId4"/>
+    <sheet name="ArchiveExecution" sheetId="18" r:id="rId4"/>
     <sheet name="ArchiveAudittrail" sheetId="16" r:id="rId5"/>
+    <sheet name="ArchiveAudittrail (2)" sheetId="19" r:id="rId6"/>
+    <sheet name="ArchiveExecution_LoadExec" sheetId="15" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="343">
   <si>
     <t>Content_Type</t>
   </si>
@@ -162,19 +164,7 @@
     <t>Verify_Archive_Audittrails_API_With_Single_Account_Filter_TC0001</t>
   </si>
   <si>
-    <t>Verify_Archive_Executions_API_With_Single_Account_Filter_TC0001</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Orders_API_With_Single_Account_Filter_TC0001</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Orders_API_With_Multiple_Accounts_Filter_TC0002</t>
-  </si>
-  <si>
     <t>Verify_Archive_Audittrails_API_With_Multiple_Accounts_Filter_TC0002</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Executions_API_With_Multiple_Accounts_Filter_TC0002</t>
   </si>
   <si>
     <t>{
@@ -195,9 +185,6 @@
         "requireTotalCount": true
     }
 }</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Orders_API_With_Account_And_Side_Filter_TC0003</t>
   </si>
   <si>
     <t>{
@@ -480,45 +467,6 @@
 }</t>
   </si>
   <si>
-    <t>Verify_Archive_Orders_API_With_Account_And_Booth_Filter_TC0004</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Orders_API_With_Account_And_Symbol_Filter_TC0005</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Orders_API_With_Account_And_TransactTime_Filter_TC0006</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Orders_API_With_Between_TransactTime_Filter_TC0007</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Orders_API_With_TransactTime_Filter_TC0008</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Orders_API_With_Account_Or_TransactTime_Or_IsOptionTrade_Filter_TC0009</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Orders_API_With_Account_Or_TransactTime_Or_IsOptionTrade_IsComplexTrade_Filter_TC0010</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Orders_API_With_Count_True_TC0011</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Orders_API_With_RequireTotalCount_False_Filter_TC0012</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Orders_API_With_RequireTotalCount_False_Or_NotEqualAccount_Filter_TC0013</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Orders_API_With_Symbol_Filter_TC0014</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Orders_API_With_Skip_And_Take_Multiple_Filters_TC0015</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Orders_API_With_Skip_And_Take_And_Account_Filter_TC0016</t>
-  </si>
-  <si>
     <t>{
     "loadOptions": {
         "filter": [  
@@ -607,75 +555,6 @@
 }</t>
   </si>
   <si>
-    <t>Verify_Archive_Orders_API_With_Multiple_Symbol_Filter_TC0017</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Orders_API_With_Side_Filter_TC0018</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Orders_API_With_Multiple_Sides_Filter_TC0019</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Orders_API_With_Booth_Filter_TC0020</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Orders_API_With_Multiple_Booths_Filter_TC0021</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Executions_API_With_Account_And_Side_Filter_TC0003</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Executions_API_With_Account_And_Booth_Filter_TC0004</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Executions_API_With_Account_And_Symbol_Filter_TC0005</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Executions_API_With_Account_And_TransactTime_Filter_TC0006</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Executions_API_With_Between_TransactTime_Filter_TC0007</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Executions_API_With_TransactTime_Filter_TC0008</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Executions_API_With_Account_Or_TransactTime_Or_IsOptionTrade_Filter_TC0009</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Executions_API_With_Count_True_TC0011</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Executions_API_With_RequireTotalCount_False_Filter_TC0012</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Executions_API_With_RequireTotalCount_False_Or_NotEqualAccount_Filter_TC0013</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Executions_API_With_Symbol_Filter_TC0014</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Executions_API_With_Skip_And_Take_Multiple_Filters_TC0015</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Executions_API_With_Skip_And_Take_And_Account_Filter_TC0016</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Executions_API_With_Multiple_Symbol_Filter_TC0017</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Executions_API_With_Side_Filter_TC0018</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Executions_API_With_Multiple_Sides_Filter_TC0019</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Executions_API_With_Booth_Filter_TC0020</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Executions_API_With_Multiple_Booths_Filter_TC0021</t>
-  </si>
-  <si>
     <t>Verify_Archive_Audittrails_API_With_Account_And_Side_Filter_TC0003</t>
   </si>
   <si>
@@ -771,63 +650,6 @@
 }</t>
   </si>
   <si>
-    <t>Verify_Archive_Executions_API_With_Account_Or_TransactTime_Or_IsOptionTrade_Filter_TC0010</t>
-  </si>
-  <si>
-    <t>{
-    "loadOptions": {
-        "filter": [  
-                ["account",
-                "contains",
-                "10005"],
-                "or"
-                ,
-               [["transactTime",
-                "&gt;=",
-                "2024-10-01T00:00:00"],
-                "and"
-                ,
-                ["transactTime",
-                "&lt;=",
-                "2024-12-30T23:59:59"]],
-                "or"
-                ,
-                [["isOptionTrade",
-                "=",
-                true]]
-        ],
-        "skip": 0,
-        "take": 2000,
-        "isCountQuery": false,
-        "requireTotalCount": true
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "loadOptions": {
-        "filter": [  
-                ["account",
-                "contains",
-                "10005"],
-                "or"
-                ,
-               [["transactTime",
-                "&gt;=",
-                "2024-10-01T00:00:00"],
-                "and"
-                ,
-                ["transactTime",
-                "&lt;=",
-                "2024-12-30T23:59:59"]]        ],
-        "skip": 0,
-        "take": 2000,
-        "isCountQuery": true,
-        "requireTotalCount": true
-    }
-}</t>
-  </si>
-  <si>
     <t>[errors, type, title, status, traceId]</t>
   </si>
   <si>
@@ -918,36 +740,6 @@
     <t>{}</t>
   </si>
   <si>
-    <t>Verify_Archive_Executions_API_Without_Filter_Value_TC0022</t>
-  </si>
-  <si>
-    <t>Verify_NegativeCase_Archive_Executions_API_With_Invalid_FilterName_TC0023</t>
-  </si>
-  <si>
-    <t>Verify_NegativeCase_Archive_Executions_API_With_Invalid_FilterOperator_TC0024</t>
-  </si>
-  <si>
-    <t>Verify_NegativeCase_Archive_Executions_API_With_Invalid_Skip_Value_TC0026</t>
-  </si>
-  <si>
-    <t>Verify_NegativeCase_Archive_Executions_API_With_Invalid_take_Value_TC0027</t>
-  </si>
-  <si>
-    <t>Verify_NegativeCase_Archive_Executions_API_Without_FilterBody_Value_TC0028</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Orders_API_Without_Filter_Value_TC0022</t>
-  </si>
-  <si>
-    <t>Verify_NegativeCase_Archive_Orders_API_With_Invalid_Skip_Value_TC0026</t>
-  </si>
-  <si>
-    <t>Verify_NegativeCase_Archive_Orders_API_With_Invalid_take_Value_TC0027</t>
-  </si>
-  <si>
-    <t>Verify_NegativeCase_Archive_Orders_API_Without_FilterBody_Value_TC0028</t>
-  </si>
-  <si>
     <t>Verify_Archive_Audittrails_API_Without_Filter_Value_TC0022</t>
   </si>
   <si>
@@ -996,18 +788,6 @@
     <t>Invalid username or booth_id.</t>
   </si>
   <si>
-    <t>Verify_Archive_Orders_API_Without_Operator_Filters_Combinations_TC0023</t>
-  </si>
-  <si>
-    <t>Verify_NegativeCase_Archive_Orders_API_With_Invalid_FilterName_TC0024</t>
-  </si>
-  <si>
-    <t>Verify_NegativeCase_Archive_Orders_API_With_Invalid_FilterOperator_TC0025</t>
-  </si>
-  <si>
-    <t>Verify_Archive_Executions_API_Without_Operator_Filters_Combinations_TC0023</t>
-  </si>
-  <si>
     <t>Verify_Archive_Audittrails_API_Without_Operator_Filters_Combinations_TC0023</t>
   </si>
   <si>
@@ -1018,13 +798,2837 @@
   </si>
   <si>
     <t>[accessToken, expiresIn, tokenType, refreshToken, scope, error, errorDescription, errorText]</t>
+  </si>
+  <si>
+    <t>Historical Executions - 15 Days filter with one (account , route and symbol)</t>
+  </si>
+  <si>
+    <t>Historical Executions - 15 Days filter with one (account , route ) and multiple symbol</t>
+  </si>
+  <si>
+    <t>Historical Executions - 15 Days filter with one (account , route , side and symbol)</t>
+  </si>
+  <si>
+    <t>Historical Executions - 15 Days filter with one (account , route and symbol) and multiple sides</t>
+  </si>
+  <si>
+    <t>Historical Executions - 15 Days filter with one (account , route and symbol) , muliple statuse and multiple sides</t>
+  </si>
+  <si>
+    <t>Historical Executions - 15 Days filter with one (account , route and symbol) , muliple (statuse , sides and ordTypes)</t>
+  </si>
+  <si>
+    <t>Historical Executions - 15 Days filter with one (account , route and symbol) , muliple (statuse , sides and ordTypes) with both Equity Option filters</t>
+  </si>
+  <si>
+    <t>Historical Executions - 15 Days filter with one (account [-TestDVP], route and symbol) , muliple (statuse , sides and ordTypes) with both Equity Option filters</t>
+  </si>
+  <si>
+    <t>Historical Executions - 15 Days filter with one (account  and symbol) , muliple routes filters</t>
+  </si>
+  <si>
+    <t>Historical Executions - 15 Days filter with one (account  and symbol) , muliple (routes, sides and status) filters</t>
+  </si>
+  <si>
+    <t>Historical Executions - 15 Days filter with one (account  and symbol) , muliple (routes, sides, orderTypes and status) filters</t>
+  </si>
+  <si>
+    <t>Historical Executions - 15 Days filter with one (account  and symbol) , muliple (routes, sides, orderTypes , Equity Or Options and status) filters</t>
+  </si>
+  <si>
+    <t>Historical Executions - 15 Days filter with one (symbol) with four accounts  and muliple (routes, sides, orderTypes , Equity Or Options and status) filters</t>
+  </si>
+  <si>
+    <t>Historical Executions - 15 Days filter with one (symbol) with two accounts  and muliple (routes, sides, orderTypes , Equity Or Options and status) filters</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,
+            "and",
+            [["Account", "=", "MCT"]]
+            ,"and",
+            [["destination", "=", "-RKEQT"]]
+             ,"and",
+          [["Symbol", "=", "BAC"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,
+            "and",
+            [["Account", "=", "-TestDVP"]]
+            ,"and",
+            [["destination", "=", "-D0"]] 
+            ,"and",
+          [["Symbol", "=", "QQQ"],"or",
+          ["Symbol", "=", "AA"],"or",
+          ["Symbol", "=", "MSFT"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,
+            "and",
+            [["Account", "=", "MCT"]]
+            ,"and",
+            [["destination", "=", "-RKEQT"]]
+             ,"and",
+          [["Symbol", "=", "BAC"]]
+          ,"and",
+          [["side", "=", "1"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,
+            "and",
+            [["Account", "=", "MCT"]]
+            ,"and",
+            [["destination", "=", "-RKEQT"]]
+             ,"and",
+          [["Symbol", "=", "BAC"]]
+          ,"and",
+          [["side", "=", "1"],"or",
+          ["side", "=", "2"],"or",
+          ["side", "=", "3"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,
+            "and",
+            [["Account", "=", "MCT"]]
+            ,"and",
+            [["destination", "=", "-RKEQT"]]
+             ,"and",
+          [["Symbol", "=", "BAC"]]
+          ,"and",
+          [["side", "=", "1"],"or",
+          ["side", "=", "2"],"or",
+          ["side", "=", "3"]],
+          "and",
+          [["statusDesc", "=", "Active"],"or",
+          ["statusDesc", "=", "Open"],"or",
+          ["statusDesc", "=", "Filled"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,
+            "and",
+            [["Account", "=", "MCT"]]
+            ,"and",
+            [["destination", "=", "-RKEQT"]]
+             ,"and",
+          [["Symbol", "=", "BAC"]]
+          ,"and",
+          [["side", "=", "1"],"or",
+          ["side", "=", "2"],"or",
+          ["side", "=", "3"]],
+          "and",
+          [["statusDesc", "=", "Active"],"or",
+          ["statusDesc", "=", "Open"],"or",
+          ["statusDesc", "=", "Filled"]],
+          "and",
+          [["ordType", "=", "1"],"or",
+          ["ordType", "=", "2"],"or",
+          ["ordType", "=", "3"],"or",
+          ["ordType", "=", "4"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,
+            "and",
+            [["Account", "=", "MCT"]]
+            ,"and",
+            [["destination", "=", "-RKEQT"]]
+             ,"and",
+          [["Symbol", "=", "BAC"]]
+          ,"and",
+          [["side", "=", "1"],"or",
+          ["side", "=", "2"],"or",
+          ["side", "=", "3"]],
+          "and",
+          [["statusDesc", "=", "Active"],"or",
+          ["statusDesc", "=", "Open"],"or",
+          ["statusDesc", "=", "Filled"]],
+          "and",
+          [["ordType", "=", "1"],"or",
+          ["ordType", "=", "2"],"or",
+          ["ordType", "=", "3"],"or",
+          ["ordType", "=", "4"]],
+          "and",
+          [[["isAccepted", "=", true],"and",
+          ["isOptionTrade", "=", false]]
+          ,"or",
+          [["isAccepted", "=", true],"and",
+          ["isOptionTrade", "=", true]]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,
+            "and",
+            [["Account", "=", "-TestDVP"]]
+            ,"and",
+            [["destination", "=", "-D0"]]
+             ,"and",
+          [["Symbol", "=", "QQQ"]]
+          ,"and",
+          [["side", "=", "1"],"or",
+          ["side", "=", "2"],"or",
+          ["side", "=", "3"]],
+          "and",
+          [["statusDesc", "=", "Active"],"or",
+          ["statusDesc", "=", "Open"],"or",
+          ["statusDesc", "=", "Filled"]],
+          "and",
+          [["ordType", "=", "1"],"or",
+          ["ordType", "=", "2"],"or",
+          ["ordType", "=", "3"],"or",
+          ["ordType", "=", "4"]],
+          "and",
+          [[["isAccepted", "=", true],"and",
+          ["isOptionTrade", "=", false]]
+          ,"or",
+          [["isAccepted", "=", true],"and",
+          ["isOptionTrade", "=", true]]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,
+            "and",
+            [["Account", "=", "-TestDVP"]]
+            ,"and",
+            [["destination", "=", "-D0"],"or",
+            ["destination", "=", "-RKEQT"],"or",
+            ["destination", "=", "-OPTFIX"],"or",
+            ["destination", "=", "-ATRT"],"or",
+            ["destination", "=", "-LATE"],"or",
+            ["destination", "=", "-NOFILL"],"or",
+            ["destination", "=", "-NYSE"]] 
+            ,"and",
+          [["Symbol", "=", "QQQ"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,
+            "and",
+            [["Account", "=", "-TestDVP"]]
+            ,"and",
+            [["destination", "=", "-D0"],"or",
+            ["destination", "=", "-RKEQT"],"or",
+            ["destination", "=", "-OPTFIX"],"or",
+            ["destination", "=", "-ATRT"],"or",
+            ["destination", "=", "-LATE"],"or",
+            ["destination", "=", "-NOFILL"],"or",
+            ["destination", "=", "-NYSE"]] 
+            ,"and",
+          [["Symbol", "=", "QQQ"]]
+          ,"and",
+          [["side", "=", "1"],"or",
+          ["side", "=", "2"],"or",
+          ["side", "=", "3"]],
+          "and",
+          [["statusDesc", "=", "Active"],"or",
+          ["statusDesc", "=", "Open"],"or",
+          ["statusDesc", "=", "Filled"],"or",
+          ["statusDesc", "=", "Canceled"],"or",
+          ["statusDesc", "=", "Rejected"],"or",
+          ["statusDesc", "=", "Part Fill"],"or",
+          ["statusDesc", "=", "pending rpl"],"or",
+          ["statusDesc", "=", "pending cxl"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,
+            "and",
+            [["Account", "=", "-TestDVP"]]
+            ,"and",
+            [["destination", "=", "-D0"],"or",
+            ["destination", "=", "-RKEQT"],"or",
+            ["destination", "=", "-OPTFIX"],"or",
+            ["destination", "=", "-ATRT"],"or",
+            ["destination", "=", "-LATE"],"or",
+            ["destination", "=", "-NOFILL"],"or",
+            ["destination", "=", "-NYSE"]] 
+            ,"and",
+          [["Symbol", "=", "QQQ"]]
+          ,"and",
+          [["side", "=", "1"],"or",
+          ["side", "=", "2"],"or",
+          ["side", "=", "3"]],
+          "and",
+          [["statusDesc", "=", "Active"],"or",
+          ["statusDesc", "=", "Open"],"or",
+          ["statusDesc", "=", "Filled"],"or",
+          ["statusDesc", "=", "Canceled"],"or",
+          ["statusDesc", "=", "Rejected"],"or",
+          ["statusDesc", "=", "Part Fill"],"or",
+          ["statusDesc", "=", "pending rpl"],"or",
+          ["statusDesc", "=", "pending cxl"]],
+          "and",
+          [["ordType", "=", "1"],"or",
+          ["ordType", "=", "2"],"or",
+          ["ordType", "=", "3"],"or",
+          ["ordType", "=", "4"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,
+            "and",
+            [["Account", "=", "-TestDVP"]]
+            ,"and",
+            [["destination", "=", "-D0"],"or",
+            ["destination", "=", "-RKEQT"],"or",
+            ["destination", "=", "-OPTFIX"],"or",
+            ["destination", "=", "-ATRT"],"or",
+            ["destination", "=", "-LATE"],"or",
+            ["destination", "=", "-NOFILL"],"or",
+            ["destination", "=", "-NYSE"]] 
+            ,"and",
+          [["Symbol", "=", "QQQ"]]
+          ,"and",
+          [["side", "=", "1"],"or",
+          ["side", "=", "2"],"or",
+          ["side", "=", "3"]],
+          "and",
+          [["statusDesc", "=", "Active"],"or",
+          ["statusDesc", "=", "Open"],"or",
+          ["statusDesc", "=", "Filled"],"or",
+          ["statusDesc", "=", "Canceled"],"or",
+          ["statusDesc", "=", "Rejected"],"or",
+          ["statusDesc", "=", "Part Fill"],"or",
+          ["statusDesc", "=", "pending rpl"],"or",
+          ["statusDesc", "=", "pending cxl"]],
+          "and",
+          [["ordType", "=", "1"],"or",
+          ["ordType", "=", "2"],"or",
+          ["ordType", "=", "3"],"or",
+          ["ordType", "=", "4"]],
+          "and",
+          [[["isAccepted", "=", true],"and",
+          ["isOptionTrade", "=", false]]
+          ,"or",
+          [["isAccepted", "=", true],"and",
+          ["isOptionTrade", "=", true]]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,
+            "and",
+            [["Account", "=", "-TestDVP"],
+            "or",
+            ["Account", "=", "10005"],
+            "or",
+            ["Account", "=", "MCT"],
+            "or",
+            ["Account", "=", "10002"]]
+            ,"and",
+            [["destination", "=", "-D0"],"or",
+            ["destination", "=", "-RKEQT"],"or",
+            ["destination", "=", "-OPTFIX"],"or",
+            ["destination", "=", "-ATRT"],"or",
+            ["destination", "=", "-LATE"],"or",
+            ["destination", "=", "-NOFILL"],"or",
+            ["destination", "=", "-NYSE"]] 
+            ,"and",
+          [["Symbol", "=", "QQQ"]]
+          ,"and",
+          [["side", "=", "1"],"or",
+          ["side", "=", "2"],"or",
+          ["side", "=", "3"]],
+          "and",
+          [["statusDesc", "=", "Active"],"or",
+          ["statusDesc", "=", "Open"],"or",
+          ["statusDesc", "=", "Filled"],"or",
+          ["statusDesc", "=", "Canceled"],"or",
+          ["statusDesc", "=", "Rejected"],"or",
+          ["statusDesc", "=", "Part Fill"],"or",
+          ["statusDesc", "=", "pending rpl"],"or",
+          ["statusDesc", "=", "pending cxl"]],
+          "and",
+          [["ordType", "=", "1"],"or",
+          ["ordType", "=", "2"],"or",
+          ["ordType", "=", "3"],"or",
+          ["ordType", "=", "4"]],
+          "and",
+          [[["isAccepted", "=", true],"and",
+          ["isOptionTrade", "=", false]]
+          ,"or",
+          [["isAccepted", "=", true],"and",
+          ["isOptionTrade", "=", true]]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,
+            "and",
+            [["Account", "=", "-TestDVP"],
+            "or",
+            ["Account", "=", "10005"]]
+            ,"and",
+            [["destination", "=", "-D0"],"or",
+            ["destination", "=", "-RKEQT"],"or",
+            ["destination", "=", "-OPTFIX"],"or",
+            ["destination", "=", "-ATRT"],"or",
+            ["destination", "=", "-LATE"],"or",
+            ["destination", "=", "-NOFILL"],"or",
+            ["destination", "=", "-NYSE"]] 
+            ,"and",
+          [["Symbol", "=", "QQQ"]]
+          ,"and",
+          [["side", "=", "1"],"or",
+          ["side", "=", "2"],"or",
+          ["side", "=", "3"]],
+          "and",
+          [["statusDesc", "=", "Active"],"or",
+          ["statusDesc", "=", "Open"],"or",
+          ["statusDesc", "=", "Filled"],"or",
+          ["statusDesc", "=", "Canceled"],"or",
+          ["statusDesc", "=", "Rejected"],"or",
+          ["statusDesc", "=", "Part Fill"],"or",
+          ["statusDesc", "=", "pending rpl"],"or",
+          ["statusDesc", "=", "pending cxl"]],
+          "and",
+          [["ordType", "=", "1"],"or",
+          ["ordType", "=", "2"],"or",
+          ["ordType", "=", "3"],"or",
+          ["ordType", "=", "4"]],
+          "and",
+          [[["isAccepted", "=", true],"and",
+          ["isOptionTrade", "=", false]]
+          ,"or",
+          [["isAccepted", "=", true],"and",
+          ["isOptionTrade", "=", true]]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "-TestDVP"]]
+            ,"and",
+            [["Symbol", "=", "QQQ"]]
+            ,"and",
+            [["destination", "=", "-D0"],"or",
+            ["destination", "=", "-RKEQT"],"or",
+            ["destination", "=", "-OPTFIX"],"or",
+            ["destination", "=", "-ATRT"],"or",
+            ["destination", "=", "-LATE"],"or",
+            ["destination", "=", "-NOFILL"],"or",
+            ["destination", "=", "-NYSE"]] 
+            ,"and",
+            [["side", "=", "1"],"or",
+            ["side", "=", "2"],"or",
+            ["side", "=", "3"]],
+            "and",
+            [["statusDesc", "=", "Active"],"or",
+            ["statusDesc", "=", "Open"],"or",
+            ["statusDesc", "=", "Filled"],"or",
+            ["statusDesc", "=", "Canceled"],"or",
+            ["statusDesc", "=", "Rejected"],"or",
+            ["statusDesc", "=", "Part Fill"],"or",
+            ["statusDesc", "=", "pending rpl"],"or",
+            ["statusDesc", "=", "pending cxl"]]
+            ,"and",
+            [["ordType", "=", "1"],"or",
+            ["ordType", "=", "2"],"or",
+            ["ordType", "=", "3"],"or",
+            ["ordType", "=", "4"]]
+            ,"and",
+            [
+            [["isAccepted", "=", true],"and",
+            ["isOptionTrade", "=", false]]
+            ,"or",
+            [["isAccepted", "=", true],"and",
+            ["isOptionTrade", "=", true]]
+            ]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": true,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "-TestDVP"],"or",
+            ["Account", "=", "10002"]]
+            ,"and",
+            [["Symbol", "=", "QQQ"]]
+            ,"and",
+            [["destination", "=", "-D0"],"or",
+            ["destination", "=", "-RKEQT"],"or",
+            ["destination", "=", "-OPTFIX"],"or",
+            ["destination", "=", "-ATRT"],"or",
+            ["destination", "=", "-LATE"],"or",
+            ["destination", "=", "-NOFILL"],"or",
+            ["destination", "=", "-NYSE"]] 
+            ,"and",
+            [["side", "=", "1"],"or",
+            ["side", "=", "2"],"or",
+            ["side", "=", "3"]],
+            "and",
+            [["statusDesc", "=", "Active"],"or",
+            ["statusDesc", "=", "Open"],"or",
+            ["statusDesc", "=", "Filled"],"or",
+            ["statusDesc", "=", "Canceled"],"or",
+            ["statusDesc", "=", "Rejected"],"or",
+            ["statusDesc", "=", "Part Fill"],"or",
+            ["statusDesc", "=", "pending rpl"],"or",
+            ["statusDesc", "=", "pending cxl"]]
+            ,"and",
+            [["ordType", "=", "1"],"or",
+            ["ordType", "=", "2"],"or",
+            ["ordType", "=", "3"],"or",
+            ["ordType", "=", "4"]]
+            ,"and",
+            [
+            [["isAccepted", "=", true],"and",
+            ["isOptionTrade", "=", false]]
+            ,"or",
+            [["isAccepted", "=", true],"and",
+            ["isOptionTrade", "=", true]]
+            ]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": true,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "-TestDVP"],"or",
+            ["Account", "=", "10002"],"or",
+            ["Account", "=", "10003"]]
+            ,"and",
+            [["Symbol", "=", "QQQ"]]
+            ,"and",
+            [["destination", "=", "-D0"],"or",
+            ["destination", "=", "-RKEQT"],"or",
+            ["destination", "=", "-OPTFIX"],"or",
+            ["destination", "=", "-ATRT"],"or",
+            ["destination", "=", "-LATE"],"or",
+            ["destination", "=", "-NOFILL"],"or",
+            ["destination", "=", "-NYSE"]] 
+            ,"and",
+            [["side", "=", "1"],"or",
+            ["side", "=", "2"],"or",
+            ["side", "=", "3"]],
+            "and",
+            [["statusDesc", "=", "Active"],"or",
+            ["statusDesc", "=", "Open"],"or",
+            ["statusDesc", "=", "Filled"],"or",
+            ["statusDesc", "=", "Canceled"],"or",
+            ["statusDesc", "=", "Rejected"],"or",
+            ["statusDesc", "=", "Part Fill"],"or",
+            ["statusDesc", "=", "pending rpl"],"or",
+            ["statusDesc", "=", "pending cxl"]]
+            ,"and",
+            [["ordType", "=", "1"],"or",
+            ["ordType", "=", "2"],"or",
+            ["ordType", "=", "3"],"or",
+            ["ordType", "=", "4"]]
+            ,"and",
+            [
+            [["isAccepted", "=", true],"and",
+            ["isOptionTrade", "=", false]]
+            ,"or",
+            [["isAccepted", "=", true],"and",
+            ["isOptionTrade", "=", true]]
+            ]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": true,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "-TestDVP"],"or",
+            ["Account", "=", "10002"],"or",
+            ["Account", "=", "10003"],"or",
+            ["Account", "=", "10004"],"or",
+            ["Account", "=", "10005"],"or",
+            ["Account", "=", "10001"],"or",
+            ["Account", "=", "100012"],"or",
+            ["Account", "=", "usama165account1"],"or",
+            ["Account", "=", "Jawad_Account0"],"or",
+            ["Account", "=", "1LOC-LOCA-123456-M"],"or",
+            ["Account", "=", "10011"],"or",
+            ["Account", "=", "JWDAccount"],"or",
+            ["Account", "=", "JWDAccount2"]]
+            ,"and",
+            [["Symbol", "=", "QQQ"]]
+            ,"and",
+            [["destination", "=", "-D0"],"or",
+            ["destination", "=", "-RKEQT"],"or",
+            ["destination", "=", "-OPTFIX"],"or",
+            ["destination", "=", "-ATRT"],"or",
+            ["destination", "=", "-LATE"],"or",
+            ["destination", "=", "-NOFILL"],"or",
+            ["destination", "=", "-NYSE"]] 
+            ,"and",
+            [["side", "=", "1"],"or",
+            ["side", "=", "2"],"or",
+            ["side", "=", "3"]],
+            "and",
+            [["statusDesc", "=", "Active"],"or",
+            ["statusDesc", "=", "Open"],"or",
+            ["statusDesc", "=", "Filled"],"or",
+            ["statusDesc", "=", "Canceled"],"or",
+            ["statusDesc", "=", "Rejected"],"or",
+            ["statusDesc", "=", "Part Fill"],"or",
+            ["statusDesc", "=", "pending rpl"],"or",
+            ["statusDesc", "=", "pending cxl"]]
+            ,"and",
+            [["ordType", "=", "1"],"or",
+            ["ordType", "=", "2"],"or",
+            ["ordType", "=", "3"],"or",
+            ["ordType", "=", "4"]]
+            ,"and",
+            [
+            [["isAccepted", "=", true],"and",
+            ["isOptionTrade", "=", false]]
+            ,"or",
+            [["isAccepted", "=", true],"and",
+            ["isOptionTrade", "=", true]]
+            ]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": true,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "-TestDVP"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": true,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": true,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-10T23:59:59"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": true,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-7T23:59:59"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": true,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Total Counts with -  15Days filter with one (symbol and account) and  multiple (routes, sides, orderTypes , Equity Or Options and status) filters</t>
+  </si>
+  <si>
+    <t>Total Counts with -  15Days filter with one (symbol ) with two accounts and  multiple (routes, sides, orderTypes , Equity Or Options and status) filters</t>
+  </si>
+  <si>
+    <t>Total Counts with -  15Days filter with one (symbol ) with Three accounts and  multiple (routes, sides, orderTypes , Equity Or Options and status) filters</t>
+  </si>
+  <si>
+    <t>Total Counts with -  15Days filter with one (symbol ) with multiple accounts and  multiple (routes, sides, orderTypes , Equity Or Options and status) filters</t>
+  </si>
+  <si>
+    <t>Total Counts with -  15Days filter with one (symbol and account )  filters</t>
+  </si>
+  <si>
+    <t>Total Counts with -  15 Days filter</t>
+  </si>
+  <si>
+    <t>Total Counts with -  10 Days filter</t>
+  </si>
+  <si>
+    <t>Total Counts with - One Week filter</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+             [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-30T23:59:59"]]
+        ],
+        "skip": 10,
+        "take": 200,
+        "isCountQuery": false,
+        "requireTotalCount": true
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+                ["account",
+                "=",
+                "10001"],          
+        ],
+        "skip": 10,
+        "take": 200,
+        "isCountQuery": false,
+        "requireTotalCount": true
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Orders_API_With_Filters_VTRAD-C1254</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Orders_API_With_Filters_VTRAD-C1255</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_Required_TransactTime_Account_Filter_Value_VTRAD-C1253</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C853</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C861</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccountBVS"],"or",["Account", "=", "AutoAccount"]]   
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C860</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]   
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C859</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["Symbol", "=", "QQQ"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["Symbol", "=", "QQQ"],"or",["Symbol", "=", "AA"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C858</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C857</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["side", "=", "1"],"or",
+            ["side", "=", "2"],"or",
+            ["side", "=", "3"]]
+          ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C841</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["statusDesc", "=", "Open"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["side", "=", "2"]],
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["side", "=", "1"]],
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["side", "=", "5"]],
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C855-B</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C855-A</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C854</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C862</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["destination", "=", "-D0"],"or",
+            ["destination", "=", "-RKEQT"],"or",
+            ["destination", "=", "-OPTFIX"],"or",
+            ["destination", "=", "-ATRT"],"or",
+            ["destination", "=", "-LATE"],"or",
+            ["destination", "=", "-NOFILL"],"or",
+            ["destination", "=", "-NYSE"]] 
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C842</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+             [["statusDesc", "=", "Part Fill"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C851</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["ordType", "=", "3"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["ordType", "=", "2"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["ordType", "=", "1"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C850</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C849</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C848</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["statusDesc", "=", "Active"],"or",
+            ["statusDesc", "=", "Open"],"or",
+            ["statusDesc", "=", "Filled"],"or",
+            ["statusDesc", "=", "Canceled"],"or",
+            ["statusDesc", "=", "Rejected"],"or",
+            ["statusDesc", "=", "Part Fill"],"or",
+            ["statusDesc", "=", "pending rpl"],"or",
+            ["statusDesc", "=", "pending cxl"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C843</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C844</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C845</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["statusDesc", "=", "Rejected"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["statusDesc", "=", "Canceled"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["statusDesc", "=", "Filled"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C870</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C882-A</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C882-B</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C882-C</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C882-D</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C882-E</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C882-F</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C837-A</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C837-B</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C838-A</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C838-B</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C872-A</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C872-B</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+        ],
+        "skip": 10,
+        "take": 50,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C871</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Orders_API_With_Filters_VTRAD-C839</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+ ,"and",
+           ["boothID","=","LSL"]
+        ],
+        "skip": 10,
+        "take": 50,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+        ],
+        "skip": 10,
+        "take": 200,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+             [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-30T23:59:59"]]
+             ,"and",
+            [["Account123", "=", "AutoAccount"]]
+            ,"and",
+            [["Symbol", "=", "QQQ"]]
+        ],
+        "skip": 10,
+        "take": 200,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Orders_API_With_Filters_VTRAD-C840-A</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Orders_API_With_Filters_VTRAD-C840-B</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Orders_API_With_Filters_VTRAD-C840-C</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Orders_API_With_Filters_VTRAD-C840-D</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C867</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-12-31T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+        ],
+        "skip": 10,
+        "take": 50,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C866</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-31T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+        ],
+        "skip": 10,
+        "take": 50,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C865</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-07T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+        ],
+        "skip": 10,
+        "take": 50,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C864</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-01T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+        ],
+        "skip": 10,
+        "take": 50,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C863</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+        ],
+        "skip": 10,
+        "take": 50,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C846</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C847</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["statusDesc", "=", "pending cxl"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["statusDesc", "=", "pending rpl"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C856</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["side", "=", "5"]],
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": true,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["Symbol", "=", "QQQ"]]
+            ,"and",
+            [["side", "=", "1"],"or",
+            ["side", "=", "2"],"or",
+            ["side", "=", "5"]],
+            "and",
+            [["ordType", "=", "1"],"or", ["ordType", "=", "2"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": true,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["side", "=", "1"],"or",
+            ["side", "=", "2"],"or",
+            ["side", "=", "5"]],
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["side", "=", "1"],"or",
+            ["side", "=", "2"],"or",
+            ["side", "=", "5"]],
+            "and",
+            [["ordType", "=", "1"],"or", ["ordType", "=", "2"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["Symbol", "=", "QQQ"]]
+            ,"and",
+            [["side", "=", "1"],"or",
+            ["side", "=", "2"],"or",
+            ["side", "=", "5"]],
+            "and",
+            [["ordType", "=", "1"],"or", ["ordType", "=", "2"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["Symbol", "=", "QQQ"]]
+            ,"and",
+            [["side", "=", "1"],"or",
+            ["side", "=", "2"],"or",
+            ["side", "=", "5"]],
+            "and",
+            [["statusDesc", "=", "Active"],"or",
+            ["statusDesc", "=", "Open"],"or",
+            ["statusDesc", "=", "Filled"]]
+            ,"and",
+            [["ordType", "=", "1"],"or",
+            ["ordType", "=", "2"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["Symbol", "=", "QQQ"]]
+            ,"and",
+            [["destination", "=", "-D0"],"or",
+            ["destination", "=", "-RKEQT"],"or",
+            ["destination", "=", "-OPTFIX"],"or",
+            ["destination", "=", "-ATRT"],"or",
+            ["destination", "=", "-LATE"],"or",
+            ["destination", "=", "-NOFILL"],"or",
+            ["destination", "=", "-NYSE"]] 
+            ,"and",
+            [["side", "=", "1"],"or",
+            ["side", "=", "2"],"or",
+            ["side", "=", "5"]],
+            "and",
+            [["statusDesc", "=", "Active"],"or",
+            ["statusDesc", "=", "Open"],"or",
+            ["statusDesc", "=", "Filled"]]
+            ,"and",
+            [["ordType", "=", "1"],"or",
+            ["ordType", "=", "2"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["Symbol", "=", "QQQ"]]
+            ,"and",
+            [["destination", "=", "-D0"],"or",
+            ["destination", "=", "-RKEQT"],"or",
+            ["destination", "=", "-OPTFIX"],"or",
+            ["destination", "=", "-ATRT"],"or",
+            ["destination", "=", "-LATE"],"or",
+            ["destination", "=", "-NOFILL"],"or",
+            ["destination", "=", "-NYSE"]] 
+            ,"and",
+            [["side", "=", "1"],"or",
+            ["side", "=", "2"],"or",
+            ["side", "=", "5"]],
+            "and",
+            [["statusDesc", "=", "Active"],"or",
+            ["statusDesc", "=", "Open"],"or",
+            ["statusDesc", "=", "Filled"],"or",
+            ["statusDesc", "=", "Canceled"],"or",
+            ["statusDesc", "=", "Rejected"],"or",
+            ["statusDesc", "=", "Part Fill"],"or",
+            ["statusDesc", "=", "pending rpl"],"or",
+            ["statusDesc", "=", "pending cxl"]]
+            ,"and",
+            [["ordType", "=", "1"],"or",
+            ["ordType", "=", "2"],"or",
+            ["ordType", "=", "3"],"or",
+            ["ordType", "=", "4"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["ordType", "=", "1"],"or",
+            ["ordType", "=", "2"],"or",
+            ["ordType", "=", "3"],"or",
+            ["ordType", "=", "4"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_TestCases_VTRAD-C852</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["ordType", "=", "4"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            ["qOrderID","=","1852"]            
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Executions_API_With_TestCases_VTRAD-C883</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Executions_API_With_TestCases_VTRAD-C884</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["ordType", "=", "1"],"or", ["ordType", "=", "2"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Executions_API_With_TestCases_VTRAD-C885</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Executions_API_With_TestCases_VTRAD-C886</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Executions_API_With_TestCases_VTRAD-C887</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Executions_API_With_TestCases_VTRAD-C888</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-01T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Executions_API_With_TestCases_VTRAD-C889</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-05T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-05T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Executions_API_With_TestCases_VTRAD-C891</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-10T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+                    ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Executions_API_With_TestCases_VTRAD-C892-A</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Executions_API_With_TestCases_VTRAD-C892-B</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-20T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-25T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+                    ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Executions_API_With_TestCases_VTRAD-C893</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+                    ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Executions_API_With_TestCases_VTRAD-C894</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-01T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+                    ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Executions_API_With_TestCases_VTRAD-C895</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-07T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+                    ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Executions_API_With_TestCases_VTRAD-C896</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Executions_API_With_TestCases_VTRAD-C897</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-12-31T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+                    ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-31T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+                    ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Executions_API_With_TestCases_VTRAD-C898</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Executions_API_With_TestCases_VTRAD-C899</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-12-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+                    ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": true,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-12-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+                    ],
+        "skip":50,
+        "take": 500,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Executions_API_With_TestCases_VTRAD-C900</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-12-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+                    ],
+        "skip":50,
+        "take": 500,
+        "isCountQuery": false,
+        "requireTotalCount": true
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Executions_API_With_TestCases_VTRAD-C901</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Executions_API_With_TestCases_VTRAD-C911-A</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Executions_API_With_TestCases_VTRAD-C911-B</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Executions_API_With_TestCases_VTRAD-C911-C</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Executions_API_With_TestCases_VTRAD-C911-D</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Executions_API_With_TestCases_VTRAD-C911-E</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Executions_API_With_TestCases_VTRAD-C911-F</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Executions_API_With_TestCases_VTRAD-C1258-A</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Executions_API_With_TestCases_VTRAD-C1258-B</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Executions_API_With_TestCases_VTRAD-C1258-C</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Executions_API_With_TestCases_VTRAD-C1258-D</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Executions_API_With_TestCases_VTRAD-C1256</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Executions_API_With_TestCases_VTRAD-C1257</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Executions_API_With_TestCases_VTRAD-C1259</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": 
+     {
+        "filter": 
+        [ 
+           ["boothID","=","LSL"],
+            "and",
+          ["clientID","=","AutoAccount"],
+            "and",
+            ["qOrderID","=","1852"],
+           "and",
+          ["symbol","=","QQQ"],
+           "and",
+           [["transactTime","&gt;=","2024-10-05T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-05T23:59:59"]],
+           "and",
+           ["isOptionTrade","=","false"]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Audittrails_API_With_TestCases_VTRAD-C940-A</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Audittrails_API_With_TestCases_VTRAD-C940-B</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Audittrails_API_With_TestCases_VTRAD-C940-C</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Audittrails_API_With_TestCases_VTRAD-C940-F</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Audittrails_API_With_TestCases_VTRAD-C940-E</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Audittrails_API_With_TestCases_VTRAD-C940-D</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Audittrails_API_With_TestCases_VTRAD-C932</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Audittrails_API_With_TestCases_VTRAD-C931-A</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Audittrails_API_With_TestCases_VTRAD-C931-B</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Audittrails_API_With_TestCases_VTRAD-C930</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Audittrails_API_With_TestCases_VTRAD-C929</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-31T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+        ],
+        "skip": 10,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-07T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+        ],
+        "skip": 10,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Audittrails_API_With_TestCases_VTRAD-C928</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Audittrails_API_With_TestCases_VTRAD-C927</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Audittrails_API_With_TestCases_VTRAD-C926</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Audittrails_API_With_TestCases_VTRAD-C922</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+           ["boothID","=","LSL"]
+        ],
+        "skip": 10,
+        "take": 50,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-01T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+        ],
+        "skip": 10,
+        "take": 50,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Audittrails_API_With_TestCases_VTRAD-C924</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Audittrails_API_With_Filters_VTRAD-C923</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-01T23:59:59"]]
+            ,"and",
+            [["destination", "=", "-D0"],"or",
+            ["destination", "=", "-RKEQT"],"or",
+            ["destination", "=", "-OPTFIX"],"or",
+            ["destination", "=", "-ATRT"],"or",
+            ["destination", "=", "-LATE"],"or",
+            ["destination", "=", "-NOFILL"],"or",
+            ["destination", "=", "-NYSE"]] 
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Audittrails_API_With_TestCases_VTRAD-C921</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": 
+     {
+        "filter": 
+        [ 
+           ["boothID","=","LSL"]
+ ,"and",
+            ["qOrderID","=","1852"]
+ ,"and",      
+     [["transactTime","&gt;=","2024-10-05T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-05T23:59:59"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Audittrails_API_With_TestCases_VTRAD-C920</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Audittrails_API_With_Filters_VTRAD-C918-A</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Audittrails_API_With_Filters_VTRAD-C918-B</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Audittrails_API_With_Filters_VTRAD-C918-C</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Audittrails_API_With_Filters_VTRAD-C918-D</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-01T23:59:59"]]
+            ,"and",          
+            [["Symbol", "=", "QQQ"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Audittrails_API_With_TestCases_VTRAD-C916</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-01T23:59:59"]]
+            ,"and",
+            [["side", "=", "1"],"or",
+            ["side", "=", "2"],"or",
+            ["side", "=", "3"]]
+          ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Audittrails_API_With_TestCases_VTRAD-C914</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-01T23:59:59"]]
+            ,"and",          
+            [["ordType", "=", "1"],"or",
+            ["ordType", "=", "2"],"or",
+            ["ordType", "=", "3"],"or",
+            ["ordType", "=", "4"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Audittrails_API_With_TestCases_VTRAD-C913</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Audittrails_API_With_TestCases_VTRAD-C912</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Executions_API_With_TestCases_VTRAD-C1261</t>
+  </si>
+  <si>
+    <t>Verify_NegativeCase_Archive_Executions_API_With_TestCases_VTRAD-C1262</t>
+  </si>
+  <si>
+    <t>Verify_Archive_Orders_API_With_Required_TransactTime_Account_Filter_Value_VTRAD-C1260</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+             [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-30T23:59:59"]]
+             ,"and",
+            [["&amp;&amp;&amp;&amp;", "=", "****"]]
+            ,"and",
+            [["Symbol", "=", "QQQ"]]
+        ],
+        "skip": 10,
+        "take": 200,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["Symbol", "=", "QQQ"]]
+            ,"and",
+            [["ordType", "=", "1"],"or", ["ordType", "=", "2"]]
+        ],
+        "skip": 600,
+        "take": 300,
+        "isCountQuery": false,
+        "requireTotalCount": true
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["Symbol", "=", "QQQ"]]
+           , "and",
+            [["ordType", "=", "1"],"or", ["ordType", "=", "2"]]
+        ],
+        "skip": 600,
+        "take": 300,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["Symbol", "=", "QQQ"]]
+           , "and",
+            [["ordType", "=", "1"],"or", ["ordType", "=", "2"]]
+        ],
+        "skip": 100,
+        "take": 500,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["Symbol", "=", "QQQ"]]
+            ,"and",
+            [["ordType", "=", "1"],"or", ["ordType", "=", "2"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": true,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["side", "=", "5"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["side", "=", "1"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["Symbol", "=", "QQQ"]]
+            ,"and",
+            [["ordType", "=", "1"],"or", ["ordType", "=", "2"]]
+        ],
+        "skip": 0,
+        "take": 1000,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["Symbol", "=", "QQQ"]]
+            ,"and",
+            [["ordType", "=", "1"],"or", ["ordType", "=", "2"]]
+        ],
+        "skip": 600,
+        "take": 300,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+            [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-15T23:59:59"]]
+            ,"and",
+            [["Account", "=", "AutoAccount"]]
+            ,"and",
+            [["Symbol", "=", "QQQ"]]
+           , "and",
+            [["ordType", "=", "1"],"or", ["ordType", "=", "2"]]
+        ],
+        "skip": 600,
+        "take": 300,
+        "isCountQuery": false,
+        "requireTotalCount": true
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+             [["transactTime","&gt;=","2024-10-01T00:00:00"]
+            ,"and",
+            ["transactTime","&lt;=","2024-10-30T23:59:59"]]
+             ,"and",
+            [["Account", "=", "AutoAccount1236"]]
+            ,"and",
+            [["Symbol", "=", "QQQ"]]
+        ],
+        "skip": 10,
+        "take": 200,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "loadOptions": {
+        "filter": [  
+   [["abcd", "=", "cbcd"]]
+        ],
+        "skip": 10,
+        "take": 200,
+        "isCountQuery": false,
+        "requireTotalCount": false
+    }
+}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1059,6 +3663,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1068,7 +3686,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1091,11 +3709,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1115,6 +3742,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1479,7 +4154,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>22</v>
@@ -1503,7 +4178,7 @@
         <v>200</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1515,8 +4190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7CCEFE-F88D-4019-AFAD-6D4207875F7A}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,7 +4234,7 @@
         <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>10</v>
@@ -1567,7 +4242,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>22</v>
@@ -1576,7 +4251,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>16</v>
@@ -1591,15 +4266,15 @@
         <v>400</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>22</v>
@@ -1611,7 +4286,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>2</v>
@@ -1623,15 +4298,15 @@
         <v>400</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>22</v>
@@ -1646,7 +4321,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>19</v>
@@ -1655,15 +4330,15 @@
         <v>400</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>22</v>
@@ -1681,16 +4356,16 @@
         <v>2</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="H5" s="5">
         <v>400</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1700,52 +4375,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7D56E2-D9E9-47B4-91F3-26434E16CD4C}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="102.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="102.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.5703125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1755,20 +4430,20 @@
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>34</v>
+        <v>237</v>
       </c>
       <c r="F2" s="8">
         <v>200</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -1778,20 +4453,20 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="F3" s="8">
         <v>200</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1801,20 +4476,20 @@
         <v>1</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="F4" s="8">
         <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1824,20 +4499,20 @@
         <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="F5" s="8">
         <v>200</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1847,20 +4522,20 @@
         <v>1</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="F6" s="8">
         <v>200</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1870,20 +4545,20 @@
         <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="F7" s="8">
         <v>200</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1893,20 +4568,20 @@
         <v>1</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="F8" s="8">
         <v>200</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1916,20 +4591,20 @@
         <v>1</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="F9" s="8">
         <v>200</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1939,20 +4614,20 @@
         <v>1</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="F10" s="8">
         <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1962,20 +4637,20 @@
         <v>1</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="F11" s="8">
         <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1985,20 +4660,20 @@
         <v>1</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="F12" s="8">
         <v>200</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -2008,20 +4683,20 @@
         <v>1</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="F13" s="8">
         <v>200</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -2031,20 +4706,20 @@
         <v>1</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>51</v>
+        <v>177</v>
       </c>
       <c r="F14" s="8">
         <v>200</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -2054,20 +4729,20 @@
         <v>1</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="F15" s="8">
         <v>200</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -2077,20 +4752,20 @@
         <v>1</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="F16" s="8">
         <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -2100,20 +4775,20 @@
         <v>1</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="F17" s="8">
         <v>200</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -2123,20 +4798,20 @@
         <v>1</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="F18" s="8">
         <v>200</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -2146,20 +4821,20 @@
         <v>1</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>69</v>
+        <v>188</v>
       </c>
       <c r="F19" s="8">
         <v>200</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -2169,20 +4844,20 @@
         <v>1</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="F20" s="8">
         <v>200</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -2192,20 +4867,20 @@
         <v>1</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="F21" s="8">
         <v>200</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -2215,20 +4890,20 @@
         <v>1</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>72</v>
+        <v>236</v>
       </c>
       <c r="F22" s="8">
         <v>200</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -2237,21 +4912,21 @@
       <c r="D23" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>127</v>
+      <c r="E23" s="9" t="s">
+        <v>235</v>
       </c>
       <c r="F23" s="8">
         <v>200</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -2260,21 +4935,21 @@
       <c r="D24" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>124</v>
+      <c r="E24" s="9" t="s">
+        <v>234</v>
       </c>
       <c r="F24" s="8">
         <v>200</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -2283,21 +4958,21 @@
       <c r="D25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>122</v>
+      <c r="E25" s="9" t="s">
+        <v>233</v>
       </c>
       <c r="F25" s="8">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -2306,21 +4981,21 @@
       <c r="D26" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>123</v>
+      <c r="E26" s="9" t="s">
+        <v>232</v>
       </c>
       <c r="F26" s="8">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -2329,21 +5004,21 @@
       <c r="D27" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>125</v>
+      <c r="E27" s="9" t="s">
+        <v>231</v>
       </c>
       <c r="F27" s="8">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -2352,35 +5027,566 @@
       <c r="D28" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>126</v>
+      <c r="E28" s="9" t="s">
+        <v>230</v>
       </c>
       <c r="F28" s="8">
+        <v>200</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="F29" s="27">
+        <v>200</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="F30" s="27">
+        <v>200</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="F31" s="27">
+        <v>200</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="F32" s="27">
+        <v>200</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F33" s="8">
+        <v>200</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F34" s="8">
+        <v>200</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="F35" s="8">
+        <v>200</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="F36" s="8">
+        <v>200</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="F37" s="8">
+        <v>200</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F38" s="8">
+        <v>200</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F39" s="8">
+        <v>200</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F40" s="8">
+        <v>200</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F41" s="8">
+        <v>200</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F42" s="8">
+        <v>200</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F43" s="8">
+        <v>200</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F44" s="8">
+        <v>200</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F45" s="8">
+        <v>200</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F46" s="8">
         <v>400</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="G46" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="8">
+      <c r="D47" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F47" s="8">
         <v>400</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>121</v>
+      <c r="G47" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F48" s="8">
+        <v>400</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="F49" s="8">
+        <v>400</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F50" s="8">
+        <v>400</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" s="8">
+        <v>400</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F52" s="8">
+        <v>400</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2391,53 +5597,53 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D330E7-9686-41B7-8243-079FED9B19D8}">
-  <dimension ref="A1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB9F9ED-233F-4108-B261-CF33BD27F880}">
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="106.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="87.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -2447,20 +5653,20 @@
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>34</v>
+        <v>241</v>
       </c>
       <c r="F2" s="8">
         <v>200</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -2470,20 +5676,20 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="F3" s="8">
         <v>200</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -2493,20 +5699,20 @@
         <v>1</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>43</v>
+        <v>245</v>
       </c>
       <c r="F4" s="8">
         <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -2516,20 +5722,20 @@
         <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="F5" s="8">
         <v>200</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -2539,20 +5745,20 @@
         <v>1</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="F6" s="8">
         <v>200</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -2562,20 +5768,20 @@
         <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>46</v>
+        <v>243</v>
       </c>
       <c r="F7" s="8">
         <v>200</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -2585,20 +5791,20 @@
         <v>1</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>52</v>
+        <v>335</v>
       </c>
       <c r="F8" s="8">
         <v>200</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -2608,20 +5814,20 @@
         <v>1</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>53</v>
+        <v>336</v>
       </c>
       <c r="F9" s="8">
         <v>200</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -2631,20 +5837,20 @@
         <v>1</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="F10" s="8">
         <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="285" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -2653,21 +5859,21 @@
       <c r="D11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>119</v>
+      <c r="E11" s="18" t="s">
+        <v>337</v>
       </c>
       <c r="F11" s="8">
         <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -2677,20 +5883,20 @@
         <v>1</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="F12" s="8">
         <v>200</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -2700,20 +5906,20 @@
         <v>1</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="F13" s="8">
         <v>200</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -2723,20 +5929,20 @@
         <v>1</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>51</v>
+        <v>207</v>
       </c>
       <c r="F14" s="8">
         <v>200</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -2746,20 +5952,20 @@
         <v>1</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>54</v>
+        <v>252</v>
       </c>
       <c r="F15" s="8">
         <v>200</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="B16" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -2769,20 +5975,20 @@
         <v>1</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>117</v>
+        <v>250</v>
       </c>
       <c r="F16" s="8">
         <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="B17" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -2792,20 +5998,20 @@
         <v>1</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>116</v>
+        <v>254</v>
       </c>
       <c r="F17" s="8">
         <v>200</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="B18" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -2815,20 +6021,20 @@
         <v>1</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>68</v>
+        <v>255</v>
       </c>
       <c r="F18" s="8">
         <v>200</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="B19" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -2838,20 +6044,20 @@
         <v>1</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>69</v>
+        <v>258</v>
       </c>
       <c r="F19" s="8">
         <v>200</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="B20" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -2861,20 +6067,20 @@
         <v>1</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="F20" s="8">
         <v>200</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="270" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="B21" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -2883,21 +6089,21 @@
       <c r="D21" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>71</v>
+      <c r="E21" s="18" t="s">
+        <v>262</v>
       </c>
       <c r="F21" s="8">
         <v>200</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -2907,20 +6113,20 @@
         <v>1</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>72</v>
+        <v>264</v>
       </c>
       <c r="F22" s="8">
         <v>200</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -2929,21 +6135,21 @@
       <c r="D23" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>127</v>
+      <c r="E23" s="9" t="s">
+        <v>268</v>
       </c>
       <c r="F23" s="8">
         <v>200</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="B24" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -2952,44 +6158,44 @@
       <c r="D24" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>124</v>
+      <c r="E24" s="9" t="s">
+        <v>267</v>
       </c>
       <c r="F24" s="8">
         <v>200</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="29" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="F25" s="32">
+        <v>200</v>
+      </c>
+      <c r="G25" s="30" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F25" s="8">
-        <v>400</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="B26" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -2998,21 +6204,21 @@
       <c r="D26" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>123</v>
+      <c r="E26" s="9" t="s">
+        <v>272</v>
       </c>
       <c r="F26" s="8">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="B27" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -3022,20 +6228,20 @@
         <v>1</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="F27" s="8">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="B28" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -3044,35 +6250,221 @@
       <c r="D28" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>126</v>
+      <c r="E28" s="9" t="s">
+        <v>274</v>
       </c>
       <c r="F28" s="8">
+        <v>200</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" s="27">
         <v>400</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="G29" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="8">
+      <c r="D30" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" s="27">
         <v>400</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>121</v>
+      <c r="G30" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="F31" s="27">
+        <v>400</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="330" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="F32" s="8">
+        <v>400</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="8">
+        <v>400</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" s="8">
+        <v>400</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" s="8">
+        <v>400</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F36" s="8">
+        <v>400</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" s="8">
+        <v>400</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3083,10 +6475,680 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD535BD-FCEF-4C7D-A395-D646E8440B4F}">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="70.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="255.5703125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F2" s="8">
+        <v>200</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="F3" s="8">
+        <v>200</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="F4" s="8">
+        <v>200</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="8">
+        <v>200</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="F6" s="8">
+        <v>200</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="F7" s="8">
+        <v>200</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F8" s="8">
+        <v>200</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="F9" s="8">
+        <v>200</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" s="8">
+        <v>200</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F11" s="8">
+        <v>200</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="F12" s="8">
+        <v>200</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="19" customFormat="1" ht="390" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="F13" s="8">
+        <v>200</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="19" customFormat="1" ht="390" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="F14" s="8">
+        <v>200</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="19" customFormat="1" ht="390" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="F15" s="8">
+        <v>200</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="19" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="F16" s="8">
+        <v>200</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="F17" s="8">
+        <v>200</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F18" s="8">
+        <v>200</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="F19" s="8">
+        <v>200</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="F20" s="8">
+        <v>200</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="F21" s="8">
+        <v>200</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F22" s="8">
+        <v>200</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="19" customFormat="1" ht="345" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="F23" s="8">
+        <v>200</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="19" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="F24" s="8">
+        <v>400</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F25" s="8">
+        <v>400</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="8">
+        <v>400</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="8">
+        <v>400</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="8">
+        <v>400</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CA228B-6E6F-460A-9BBF-ABDA527708D1}">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3149,7 +7211,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>3</v>
@@ -3161,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F3" s="8">
         <v>200</v>
@@ -3172,7 +7234,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -3184,7 +7246,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F4" s="8">
         <v>200</v>
@@ -3195,7 +7257,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>3</v>
@@ -3207,7 +7269,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F5" s="8">
         <v>200</v>
@@ -3218,7 +7280,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>3</v>
@@ -3230,7 +7292,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F6" s="8">
         <v>200</v>
@@ -3241,7 +7303,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>3</v>
@@ -3253,7 +7315,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F7" s="8">
         <v>200</v>
@@ -3264,7 +7326,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>3</v>
@@ -3276,7 +7338,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F8" s="8">
         <v>200</v>
@@ -3287,7 +7349,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>3</v>
@@ -3299,7 +7361,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F9" s="8">
         <v>200</v>
@@ -3310,7 +7372,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>3</v>
@@ -3322,7 +7384,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F10" s="8">
         <v>200</v>
@@ -3333,7 +7395,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>3</v>
@@ -3345,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F11" s="8">
         <v>200</v>
@@ -3356,7 +7418,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>3</v>
@@ -3368,7 +7430,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F12" s="8">
         <v>200</v>
@@ -3379,7 +7441,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>3</v>
@@ -3391,18 +7453,18 @@
         <v>1</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F13" s="8">
         <v>200</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>3</v>
@@ -3414,18 +7476,18 @@
         <v>1</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F14" s="8">
         <v>200</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>3</v>
@@ -3437,7 +7499,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F15" s="8">
         <v>200</v>
@@ -3448,7 +7510,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>3</v>
@@ -3460,7 +7522,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="F16" s="8">
         <v>200</v>
@@ -3471,7 +7533,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>3</v>
@@ -3483,7 +7545,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="F17" s="8">
         <v>200</v>
@@ -3494,7 +7556,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>3</v>
@@ -3506,7 +7568,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F18" s="8">
         <v>200</v>
@@ -3517,7 +7579,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>3</v>
@@ -3529,7 +7591,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F19" s="8">
         <v>200</v>
@@ -3540,7 +7602,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>3</v>
@@ -3552,7 +7614,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F20" s="8">
         <v>200</v>
@@ -3563,7 +7625,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>3</v>
@@ -3575,7 +7637,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F21" s="8">
         <v>200</v>
@@ -3586,7 +7648,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>3</v>
@@ -3598,7 +7660,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F22" s="8">
         <v>200</v>
@@ -3609,7 +7671,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>3</v>
@@ -3621,18 +7683,18 @@
         <v>1</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="F23" s="8">
         <v>200</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>3</v>
@@ -3644,7 +7706,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="F24" s="8">
         <v>200</v>
@@ -3655,7 +7717,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>3</v>
@@ -3667,18 +7729,18 @@
         <v>1</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="F25" s="8">
         <v>400</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>3</v>
@@ -3690,18 +7752,18 @@
         <v>1</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="F26" s="8">
         <v>400</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>3</v>
@@ -3713,18 +7775,18 @@
         <v>1</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="F27" s="8">
         <v>400</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>3</v>
@@ -3736,18 +7798,18 @@
         <v>1</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="F28" s="8">
         <v>400</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>3</v>
@@ -3763,7 +7825,562 @@
         <v>400</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D330E7-9686-41B7-8243-079FED9B19D8}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="142.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.5703125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="8">
+        <v>400</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="8">
+        <v>400</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="8">
+        <v>400</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>121</v>
+      </c>
+      <c r="F5" s="8">
+        <v>400</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="8">
+        <v>400</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="8">
+        <v>400</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="8">
+        <v>400</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="8">
+        <v>400</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="8">
+        <v>400</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="8">
+        <v>400</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="8">
+        <v>400</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="8">
+        <v>400</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="8">
+        <v>400</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="8">
+        <v>400</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="8">
+        <v>400</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="8">
+        <v>400</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="8">
+        <v>400</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="8">
+        <v>400</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="8">
+        <v>400</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="8">
+        <v>400</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="8">
+        <v>400</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="8">
+        <v>400</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
